--- a/mandarart.xlsx
+++ b/mandarart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\wassup3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6651A5-3441-44B9-BDE7-C5805903DDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070F3F46-0E64-48BD-820B-8CE666EF49C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="9495" windowHeight="11512" xr2:uid="{8CC4F0CA-F584-41E9-AF5F-9F386CF4B8D0}"/>
+    <workbookView xWindow="11115" yWindow="0" windowWidth="10568" windowHeight="11512" xr2:uid="{8CC4F0CA-F584-41E9-AF5F-9F386CF4B8D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>2024년
-삼성네이버
-취업하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>취업 준비</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +48,281 @@
   </si>
   <si>
     <t>영어 회화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년
+PM으로
+취업하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강한
+생활하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공모전
+준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소소한
+투자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매주
+채용 공고
+확인하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포트폴리오
+완성하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력서
+정리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자조서에
+적을 나의
+역량 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의
+스토리텔링
+만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신감
+갖기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물류 관리사
+or erd 따기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 점수
+최대한
+올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM 관련
+도서 매주
+1권 읽기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 아침
+20분만 이라도
+신문 읽기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주에
+기업 하나씩
+분석하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python
+복습하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리적 사고
+전개
+연습하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM역량
+키우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 생각을
+명확하게 전달
+하는 연습하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜?라는
+궁금증 생기면
+끝까지
+알아내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 계획
+세우고
+실행하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 회화
+학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 영어
+단어 20개
+이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국 기업
+조사하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국인이
+말 걸면
+당황하지 않기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국인 친구
+만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 대학원(UX)
+알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 드라마
+즐겨보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어 마스터
+하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 직무
+에서 일하는
+사람 만나기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 만남
+두려워 하지
+말기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넓은 인맥
+가지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넓은 인맥 가지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 그룹 활동 신청하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활동 끝나도
+연락 꾸준히 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들한테
+잘하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일
+외출하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새벽 3시
+전에 자기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일주일 한번
+약속 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이틀에 한번
+운동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 하루
+5컵 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운
+취미 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식
+공부하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로또 1등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업
+아이템
+구상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포토샵
+배우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일주일
+사진 1개
+작업하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취미 생활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테니스
+하고싶다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적화
+공부하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python
+공부하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 공모전
+공부 2시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,19 +347,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.5"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3" tint="0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.5"/>
-      <color theme="3" tint="0.249977111117893"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -209,26 +495,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -243,13 +523,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -586,157 +926,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B9EC0D-D8AB-4466-B948-AB6A1F63F198}">
-  <dimension ref="B1:K11"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="2:11" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.65"/>
-    <row r="2" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1"/>
+    <row r="1" spans="2:10" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="5"/>
-      <c r="C3" s="11" t="str">
+    <row r="3" spans="2:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="str">
         <f>E5</f>
         <v>취업 준비</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="11" t="str">
-        <f>F5</f>
-        <v>PM 역량 
-키우기</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="11" t="str">
+      <c r="D3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="12" t="str">
         <f>G5</f>
         <v>영어 회화</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="2:11" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="1"/>
+    <row r="4" spans="2:10" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
+    <row r="5" spans="2:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1"/>
+      <c r="G6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="5"/>
-      <c r="C6" s="11">
-        <f>E6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="11">
-        <f>G6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="1"/>
+    <row r="7" spans="2:10" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
-    <row r="7" spans="2:11" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="1"/>
+    <row r="8" spans="2:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="1"/>
+    <row r="9" spans="2:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="3"/>
+      <c r="C9" s="12" t="str">
+        <f>E7</f>
+        <v>공모전
+준비</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="12" t="str">
+        <f>G7</f>
+        <v>소소한
+투자</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
-    <row r="9" spans="2:11" ht="49.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="11">
-        <f>E7</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="11">
-        <f>F7</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="11">
-        <f>G7</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="1"/>
+    <row r="10" spans="2:10" ht="50.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
-    <row r="10" spans="2:11" ht="50.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="11" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
